--- a/Doc/数据公式.xlsx
+++ b/Doc/数据公式.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="伤害计算" sheetId="1" r:id="rId1"/>
     <sheet name="装备" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -369,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -425,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
